--- a/Code/Results/Cases/Case_3_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_139/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.71103358320343</v>
+        <v>14.98669760470756</v>
       </c>
       <c r="C2">
-        <v>14.7664436108353</v>
+        <v>12.1461167406979</v>
       </c>
       <c r="D2">
-        <v>4.535473281438675</v>
+        <v>4.80754083459285</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>17.68048690861782</v>
+        <v>23.74236467974593</v>
       </c>
       <c r="G2">
-        <v>2.073549988993168</v>
+        <v>3.62712486080466</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>12.76176568535858</v>
+        <v>21.92968259560744</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.720712341107693</v>
+        <v>10.93843459763619</v>
       </c>
       <c r="M2">
-        <v>12.48678507125591</v>
+        <v>14.93099595568168</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.88377148142555</v>
+        <v>21.25138843000688</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.27733139343406</v>
+        <v>14.37999412778179</v>
       </c>
       <c r="C3">
-        <v>14.14572926627519</v>
+        <v>11.89522532001232</v>
       </c>
       <c r="D3">
-        <v>4.39335482968581</v>
+        <v>4.76033704974826</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>17.26965691656035</v>
+        <v>23.78763034473561</v>
       </c>
       <c r="G3">
-        <v>2.078998712521115</v>
+        <v>3.629193155550179</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>13.07591676988024</v>
+        <v>22.07615201440281</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.679982766924544</v>
+        <v>10.96069001648453</v>
       </c>
       <c r="M3">
-        <v>11.87011422385767</v>
+        <v>14.80827243883534</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.81990067119753</v>
+        <v>21.34241164285425</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.3450406923089</v>
+        <v>13.994729247701</v>
       </c>
       <c r="C4">
-        <v>13.75073028529338</v>
+        <v>11.73778610231282</v>
       </c>
       <c r="D4">
-        <v>4.303579936806571</v>
+        <v>4.730891512314495</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>17.0359232766528</v>
+        <v>23.82371044960678</v>
       </c>
       <c r="G4">
-        <v>2.08244674011319</v>
+        <v>3.630530626851026</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>13.28264618721538</v>
+        <v>22.17156813704139</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.658874167516683</v>
+        <v>10.97611524154257</v>
       </c>
       <c r="M4">
-        <v>11.478327153371</v>
+        <v>14.73422723323268</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.79912131481189</v>
+        <v>21.4045383191226</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.95199226719336</v>
+        <v>13.83473663620841</v>
       </c>
       <c r="C5">
-        <v>13.58642810464613</v>
+        <v>11.67283842474492</v>
       </c>
       <c r="D5">
-        <v>4.266398587400234</v>
+        <v>4.718782546741959</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.94535373971112</v>
+        <v>23.84048893074279</v>
       </c>
       <c r="G5">
-        <v>2.083878256853958</v>
+        <v>3.631092691971704</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.3701966760596</v>
+        <v>22.21182940755471</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.651235337949276</v>
+        <v>10.98284372522348</v>
       </c>
       <c r="M5">
-        <v>11.31554126706299</v>
+        <v>14.70440682564251</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>13.79510209981095</v>
+        <v>21.43141765470623</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.88593211425094</v>
+        <v>13.80799583692217</v>
       </c>
       <c r="C6">
-        <v>13.55894923907654</v>
+        <v>11.66200809412918</v>
       </c>
       <c r="D6">
-        <v>4.260189656917478</v>
+        <v>4.716765431378326</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.9305975424973</v>
+        <v>23.84340007931339</v>
       </c>
       <c r="G6">
-        <v>2.084117573002587</v>
+        <v>3.631187052892714</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.38492938921211</v>
+        <v>22.21859800464722</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.650024547793512</v>
+        <v>10.98398771277338</v>
       </c>
       <c r="M6">
-        <v>11.2883275697591</v>
+        <v>14.69947724081364</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>13.79469771827448</v>
+        <v>21.4359751112418</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.3397931499814</v>
+        <v>13.99258335597062</v>
       </c>
       <c r="C7">
-        <v>13.74852774050006</v>
+        <v>11.73691330851759</v>
       </c>
       <c r="D7">
-        <v>4.303080866359529</v>
+        <v>4.730728641916641</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>17.03468286650211</v>
+        <v>23.82392833803017</v>
       </c>
       <c r="G7">
-        <v>2.082465938251377</v>
+        <v>3.630538138013778</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>13.28381374997695</v>
+        <v>22.17210553389752</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.658767272104271</v>
+        <v>10.97620419235633</v>
       </c>
       <c r="M7">
-        <v>11.47614418034316</v>
+        <v>14.7338236006709</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.79904935344859</v>
+        <v>21.4048945065164</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.22744677320736</v>
+        <v>14.78027052437946</v>
       </c>
       <c r="C8">
-        <v>14.55538619616079</v>
+        <v>12.06034986948672</v>
       </c>
       <c r="D8">
-        <v>4.487012270750681</v>
+        <v>4.791364814316936</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>17.53500929491139</v>
+        <v>23.7562477481201</v>
       </c>
       <c r="G8">
-        <v>2.075407835791256</v>
+        <v>3.627824025398963</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>12.86710173930318</v>
+        <v>21.97904693663778</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.705849329873486</v>
+        <v>10.94574288750539</v>
       </c>
       <c r="M8">
-        <v>12.27698258271057</v>
+        <v>14.88842457341349</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.85781242276216</v>
+        <v>21.28147472954315</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.51954202512002</v>
+        <v>16.2157781291287</v>
       </c>
       <c r="C9">
-        <v>16.02195641828873</v>
+        <v>12.66510357647777</v>
       </c>
       <c r="D9">
-        <v>4.826412999141725</v>
+        <v>4.906321812693662</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>18.66115577842521</v>
+        <v>23.68959316426503</v>
       </c>
       <c r="G9">
-        <v>2.062349222488066</v>
+        <v>3.623035024891098</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.16870488392533</v>
+        <v>21.64398568666124</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.829837558100958</v>
+        <v>10.89997747415908</v>
       </c>
       <c r="M9">
-        <v>13.76908267112714</v>
+        <v>15.20085728030844</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>14.12712556149955</v>
+        <v>21.08922370377971</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.69298375588427</v>
+        <v>17.19480520424838</v>
       </c>
       <c r="C10">
-        <v>17.02294832047912</v>
+        <v>13.08818058555424</v>
       </c>
       <c r="D10">
-        <v>5.061242183308694</v>
+        <v>4.98800234477722</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.57346941421935</v>
+        <v>23.68124770725855</v>
       </c>
       <c r="G10">
-        <v>2.053186226491488</v>
+        <v>3.619838263633759</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>11.74238630731469</v>
+        <v>21.42437775706716</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.941137989922399</v>
+        <v>10.87487051809638</v>
       </c>
       <c r="M10">
-        <v>14.95266026656532</v>
+        <v>15.43452970787552</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.42855973152841</v>
+        <v>20.97869026157171</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.62952628297771</v>
+        <v>17.62225414212185</v>
       </c>
       <c r="C11">
-        <v>17.46082307530408</v>
+        <v>13.27541850395603</v>
       </c>
       <c r="D11">
-        <v>5.164656679638617</v>
+        <v>5.02448150294159</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>20.00606756727698</v>
+        <v>23.68631964724275</v>
       </c>
       <c r="G11">
-        <v>2.049100530606892</v>
+        <v>3.618453100739098</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>11.57108353910494</v>
+        <v>21.33024813405085</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.996330794653603</v>
+        <v>10.86529733978219</v>
       </c>
       <c r="M11">
-        <v>15.46406293171432</v>
+        <v>15.54140212865589</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>14.58993258790592</v>
+        <v>20.93514960349458</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.97675820206419</v>
+        <v>17.78143926230084</v>
       </c>
       <c r="C12">
-        <v>17.62406726723147</v>
+        <v>13.34552257189124</v>
       </c>
       <c r="D12">
-        <v>5.203308947544406</v>
+        <v>5.038191510363253</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>20.17233502161975</v>
+        <v>23.68951705984742</v>
       </c>
       <c r="G12">
-        <v>2.047564304348389</v>
+        <v>3.61793845088873</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>11.50983748242247</v>
+        <v>21.29543468225157</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.017899433556245</v>
+        <v>10.86193782017288</v>
       </c>
       <c r="M12">
-        <v>15.6538751233079</v>
+        <v>15.58192676141179</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>14.65464942413451</v>
+        <v>20.91963710395504</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.90230404072551</v>
+        <v>17.7472766128052</v>
       </c>
       <c r="C13">
-        <v>17.58902472434205</v>
+        <v>13.33046066298972</v>
       </c>
       <c r="D13">
-        <v>5.195007365874085</v>
+        <v>5.035243534212722</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>20.13641844730925</v>
+        <v>23.6887716460835</v>
       </c>
       <c r="G13">
-        <v>2.047894687355427</v>
+        <v>3.61804885125301</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>11.52286047937568</v>
+        <v>21.30289538002253</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.013224326588158</v>
+        <v>10.86264954115651</v>
       </c>
       <c r="M13">
-        <v>15.61316599511677</v>
+        <v>15.57319708515505</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>14.64054923176378</v>
+        <v>20.92293452480112</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.65824139494486</v>
+        <v>17.63540466198765</v>
       </c>
       <c r="C14">
-        <v>17.47430503796613</v>
+        <v>13.28120228063609</v>
       </c>
       <c r="D14">
-        <v>5.167846910667925</v>
+        <v>5.025611551044715</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>20.01969776560157</v>
+        <v>23.68655710823221</v>
       </c>
       <c r="G14">
-        <v>2.048973930749529</v>
+        <v>3.61841056243277</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>11.56596992524061</v>
+        <v>21.32736733891524</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.998091796617555</v>
+        <v>10.86501562724767</v>
       </c>
       <c r="M14">
-        <v>15.47975570934597</v>
+        <v>15.54473518564975</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.59518391922255</v>
+        <v>20.93385379906071</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.50778274145201</v>
+        <v>17.56652794809292</v>
       </c>
       <c r="C15">
-        <v>17.40369988593653</v>
+        <v>13.25092469909409</v>
       </c>
       <c r="D15">
-        <v>5.151143630419637</v>
+        <v>5.019697970714833</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.94852012847155</v>
+        <v>23.68536693439004</v>
       </c>
       <c r="G15">
-        <v>2.049636393948903</v>
+        <v>3.61863340634709</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>11.59285913307393</v>
+        <v>21.34246543950268</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.988910077201519</v>
+        <v>10.86649951230816</v>
       </c>
       <c r="M15">
-        <v>15.39753859115928</v>
+        <v>15.52730769783174</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.56786963285326</v>
+        <v>20.94066936866649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.63073594652382</v>
+        <v>17.16650063277617</v>
       </c>
       <c r="C16">
-        <v>16.99397531832806</v>
+        <v>13.07583488900332</v>
       </c>
       <c r="D16">
-        <v>5.0544135574093</v>
+        <v>4.985604157382084</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.54554525165484</v>
+        <v>23.68109486118056</v>
       </c>
       <c r="G16">
-        <v>2.053454819588221</v>
+        <v>3.619930172711224</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>11.75406725416858</v>
+        <v>21.43064560538504</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.937623873310884</v>
+        <v>10.87553332745335</v>
       </c>
       <c r="M16">
-        <v>14.9186986016895</v>
+        <v>15.42755448077551</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.41851231109887</v>
+        <v>20.98167192035707</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.07939415638779</v>
+        <v>16.91642901262459</v>
       </c>
       <c r="C17">
-        <v>16.7381009448414</v>
+        <v>12.96705026470391</v>
       </c>
       <c r="D17">
-        <v>4.994185437704188</v>
+        <v>4.964510518283812</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.30278051786372</v>
+        <v>23.68074702228726</v>
       </c>
       <c r="G17">
-        <v>2.055817807218343</v>
+        <v>3.620743349451449</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>11.85900828976395</v>
+        <v>21.48622043912118</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.907338799896964</v>
+        <v>10.88154855696911</v>
       </c>
       <c r="M17">
-        <v>14.61805374574343</v>
+        <v>15.36648600201232</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.33318836351863</v>
+        <v>21.00855666993507</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.75736137722753</v>
+        <v>16.77091331969661</v>
       </c>
       <c r="C18">
-        <v>16.5892856988678</v>
+        <v>12.90399135736551</v>
       </c>
       <c r="D18">
-        <v>4.959223696517983</v>
+        <v>4.952314597074976</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.16480798370758</v>
+        <v>23.68138168456149</v>
       </c>
       <c r="G18">
-        <v>2.057184769601042</v>
+        <v>3.621217570375151</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>11.92147320260277</v>
+        <v>21.5187287204813</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.890348303650384</v>
+        <v>10.88518232077237</v>
       </c>
       <c r="M18">
-        <v>14.4425855335449</v>
+        <v>15.33141670414955</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>14.28638842616999</v>
+        <v>21.02465427356887</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.64747983405671</v>
+        <v>16.7213589108288</v>
       </c>
       <c r="C19">
-        <v>16.5386191457932</v>
+        <v>12.88255824979096</v>
       </c>
       <c r="D19">
-        <v>4.947331872018056</v>
+        <v>4.948174573399917</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.11838025581155</v>
+        <v>23.68173986566377</v>
       </c>
       <c r="G19">
-        <v>2.057648972701797</v>
+        <v>3.621379251869846</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>11.94297386473001</v>
+        <v>21.52982870122559</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.884668852376332</v>
+        <v>10.88644253174879</v>
       </c>
       <c r="M19">
-        <v>14.38273673916006</v>
+        <v>15.31955326341106</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>14.27092975363916</v>
+        <v>21.03021338471662</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.13859356998605</v>
+        <v>16.94322435721062</v>
       </c>
       <c r="C20">
-        <v>16.7655097090445</v>
+        <v>12.97868152823581</v>
       </c>
       <c r="D20">
-        <v>5.000630095776676</v>
+        <v>4.96676258258569</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.32845207624637</v>
+        <v>23.6806976432031</v>
       </c>
       <c r="G20">
-        <v>2.055565458916692</v>
+        <v>3.620656112704852</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>11.84761668422354</v>
+        <v>21.48024818310899</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.910518239805122</v>
+        <v>10.88089022169512</v>
       </c>
       <c r="M20">
-        <v>14.65032105582815</v>
+        <v>15.37298128764898</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>14.34203474417919</v>
+        <v>21.00562906025564</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.73012908958804</v>
+        <v>17.66833766906998</v>
       </c>
       <c r="C21">
-        <v>17.50807109910232</v>
+        <v>13.29569270755113</v>
       </c>
       <c r="D21">
-        <v>5.175838526810173</v>
+        <v>5.028443566845856</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>20.05391549200855</v>
+        <v>23.68717291538702</v>
       </c>
       <c r="G21">
-        <v>2.048656641762402</v>
+        <v>3.618304051307999</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>11.55320617246603</v>
+        <v>21.32015675487769</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.002518353746426</v>
+        <v>10.86431344238512</v>
       </c>
       <c r="M21">
-        <v>15.51904555530255</v>
+        <v>15.55309388349256</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>14.60840998438563</v>
+        <v>20.93062002512978</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.72710361770698</v>
+        <v>18.12657916237032</v>
       </c>
       <c r="C22">
-        <v>17.97838491246532</v>
+        <v>13.49820162608233</v>
       </c>
       <c r="D22">
-        <v>5.287376732991409</v>
+        <v>5.068147443337899</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>20.54230948726342</v>
+        <v>23.69884659270526</v>
       </c>
       <c r="G22">
-        <v>2.044204601132277</v>
+        <v>3.616824416175692</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>11.38210887334701</v>
+        <v>21.22037454732215</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.066546632024556</v>
+        <v>10.85502778748125</v>
       </c>
       <c r="M22">
-        <v>16.06441786055086</v>
+        <v>15.67111183261281</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>14.80358051179901</v>
+        <v>20.88728525054037</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.19892181661221</v>
+        <v>17.88347068216857</v>
       </c>
       <c r="C23">
-        <v>17.72875623436605</v>
+        <v>13.39056162474543</v>
       </c>
       <c r="D23">
-        <v>5.2281237451355</v>
+        <v>5.047014459546729</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>20.28036285112338</v>
+        <v>23.6919350906035</v>
       </c>
       <c r="G23">
-        <v>2.046575277723415</v>
+        <v>3.617608873601692</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>11.47134332784263</v>
+        <v>21.2731861727388</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.032012652992503</v>
+        <v>10.85984210785056</v>
       </c>
       <c r="M23">
-        <v>15.77537675788429</v>
+        <v>15.60810487390324</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>14.69744923354066</v>
+        <v>20.90989148456788</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.11184527927105</v>
+        <v>16.93111561284401</v>
       </c>
       <c r="C24">
-        <v>16.75312352757935</v>
+        <v>12.97342464124381</v>
       </c>
       <c r="D24">
-        <v>4.997717510373386</v>
+        <v>4.965744638450451</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.3168409871564</v>
+        <v>23.68071736775888</v>
       </c>
       <c r="G24">
-        <v>2.055679519196159</v>
+        <v>3.620695531517833</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>11.85276021286553</v>
+        <v>21.48294650333319</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.909079505277416</v>
+        <v>10.88118730831085</v>
       </c>
       <c r="M24">
-        <v>14.63574117942725</v>
+        <v>15.37004464293681</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>14.33802828434666</v>
+        <v>21.00695063571275</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.67235143258624</v>
+        <v>15.84014303224503</v>
       </c>
       <c r="C25">
-        <v>15.63828503413483</v>
+        <v>12.50500887156499</v>
       </c>
       <c r="D25">
-        <v>4.737048253142328</v>
+        <v>4.875684457958293</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>18.34129730738261</v>
+        <v>23.70051079681707</v>
       </c>
       <c r="G25">
-        <v>2.065802729118209</v>
+        <v>3.624273832581747</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>12.34355792343056</v>
+        <v>21.72996654075148</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.7928079104857</v>
+        <v>10.91086244154512</v>
       </c>
       <c r="M25">
-        <v>13.35451190903216</v>
+        <v>15.11550002629174</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>14.03672388237773</v>
+        <v>21.13586499829437</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_139/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_139/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.98669760470756</v>
+        <v>21.71103358320346</v>
       </c>
       <c r="C2">
-        <v>12.1461167406979</v>
+        <v>14.76644361083537</v>
       </c>
       <c r="D2">
-        <v>4.80754083459285</v>
+        <v>4.535473281438675</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.74236467974593</v>
+        <v>17.68048690861768</v>
       </c>
       <c r="G2">
-        <v>3.62712486080466</v>
+        <v>2.073549988993169</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>21.92968259560744</v>
+        <v>12.76176568535842</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.93843459763619</v>
+        <v>6.720712341107739</v>
       </c>
       <c r="M2">
-        <v>14.93099595568168</v>
+        <v>12.48678507125589</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.25138843000688</v>
+        <v>13.8837714814254</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.37999412778179</v>
+        <v>20.2773313934341</v>
       </c>
       <c r="C3">
-        <v>11.89522532001232</v>
+        <v>14.14572926627517</v>
       </c>
       <c r="D3">
-        <v>4.76033704974826</v>
+        <v>4.393354829685659</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.78763034473561</v>
+        <v>17.26965691656043</v>
       </c>
       <c r="G3">
-        <v>3.629193155550179</v>
+        <v>2.078998712520981</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.07615201440281</v>
+        <v>13.07591676988026</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.96069001648453</v>
+        <v>6.679982766924489</v>
       </c>
       <c r="M3">
-        <v>14.80827243883534</v>
+        <v>11.87011422385764</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.34241164285425</v>
+        <v>13.81990067119755</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.994729247701</v>
+        <v>19.34504069230891</v>
       </c>
       <c r="C4">
-        <v>11.73778610231282</v>
+        <v>13.75073028529353</v>
       </c>
       <c r="D4">
-        <v>4.730891512314495</v>
+        <v>4.303579936806668</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.82371044960678</v>
+        <v>17.03592327665263</v>
       </c>
       <c r="G4">
-        <v>3.630530626851026</v>
+        <v>2.082446740112924</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.17156813704139</v>
+        <v>13.28264618721533</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.97611524154257</v>
+        <v>6.658874167516638</v>
       </c>
       <c r="M4">
-        <v>14.73422723323268</v>
+        <v>11.47832715337097</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.4045383191226</v>
+        <v>13.79912131481181</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.83473663620841</v>
+        <v>18.95199226719344</v>
       </c>
       <c r="C5">
-        <v>11.67283842474492</v>
+        <v>13.58642810464622</v>
       </c>
       <c r="D5">
-        <v>4.718782546741959</v>
+        <v>4.266398587400164</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.84048893074279</v>
+        <v>16.94535373971089</v>
       </c>
       <c r="G5">
-        <v>3.631092691971704</v>
+        <v>2.083878256854092</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.21182940755471</v>
+        <v>13.37019667605939</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.98284372522348</v>
+        <v>6.651235337949391</v>
       </c>
       <c r="M5">
-        <v>14.70440682564251</v>
+        <v>11.31554126706298</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>21.43141765470623</v>
+        <v>13.79510209981071</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.80799583692217</v>
+        <v>18.88593211425098</v>
       </c>
       <c r="C6">
-        <v>11.66200809412918</v>
+        <v>13.55894923907671</v>
       </c>
       <c r="D6">
-        <v>4.716765431378326</v>
+        <v>4.260189656917742</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.84340007931339</v>
+        <v>16.93059754249713</v>
       </c>
       <c r="G6">
-        <v>3.631187052892714</v>
+        <v>2.084117573002855</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>22.21859800464722</v>
+        <v>13.38492938921205</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.98398771277338</v>
+        <v>6.650024547793541</v>
       </c>
       <c r="M6">
-        <v>14.69947724081364</v>
+        <v>11.28832756975909</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.4359751112418</v>
+        <v>13.79469771827438</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.99258335597062</v>
+        <v>19.33979314998139</v>
       </c>
       <c r="C7">
-        <v>11.73691330851759</v>
+        <v>13.74852774050002</v>
       </c>
       <c r="D7">
-        <v>4.730728641916641</v>
+        <v>4.303080866359474</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.82392833803017</v>
+        <v>17.03468286650221</v>
       </c>
       <c r="G7">
-        <v>3.630538138013778</v>
+        <v>2.082465938251377</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.17210553389752</v>
+        <v>13.28381374997698</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.97620419235633</v>
+        <v>6.658767272104322</v>
       </c>
       <c r="M7">
-        <v>14.7338236006709</v>
+        <v>11.47614418034316</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.4048945065164</v>
+        <v>13.79904935344865</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.78027052437946</v>
+        <v>21.22744677320742</v>
       </c>
       <c r="C8">
-        <v>12.06034986948672</v>
+        <v>14.5553861961606</v>
       </c>
       <c r="D8">
-        <v>4.791364814316936</v>
+        <v>4.487012270750611</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.7562477481201</v>
+        <v>17.53500929491116</v>
       </c>
       <c r="G8">
-        <v>3.627824025398963</v>
+        <v>2.075407835791121</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>21.97904693663778</v>
+        <v>12.86710173930283</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.94574288750539</v>
+        <v>6.705849329873463</v>
       </c>
       <c r="M8">
-        <v>14.88842457341349</v>
+        <v>12.27698258271054</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.28147472954315</v>
+        <v>13.85781242276196</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.2157781291287</v>
+        <v>24.51954202512003</v>
       </c>
       <c r="C9">
-        <v>12.66510357647777</v>
+        <v>16.02195641828864</v>
       </c>
       <c r="D9">
-        <v>4.906321812693662</v>
+        <v>4.826412999141725</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.68959316426503</v>
+        <v>18.66115577842531</v>
       </c>
       <c r="G9">
-        <v>3.623035024891098</v>
+        <v>2.062349222487932</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>21.64398568666124</v>
+        <v>12.16870488392542</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.89997747415908</v>
+        <v>6.829837558100864</v>
       </c>
       <c r="M9">
-        <v>15.20085728030844</v>
+        <v>13.76908267112715</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.08922370377971</v>
+        <v>14.12712556149962</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.19480520424838</v>
+        <v>26.6929837558843</v>
       </c>
       <c r="C10">
-        <v>13.08818058555424</v>
+        <v>17.02294832047893</v>
       </c>
       <c r="D10">
-        <v>4.98800234477722</v>
+        <v>5.061242183308761</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.68124770725855</v>
+        <v>19.57346941421943</v>
       </c>
       <c r="G10">
-        <v>3.619838263633759</v>
+        <v>2.053186226491355</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>21.42437775706716</v>
+        <v>11.74238630731476</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.87487051809638</v>
+        <v>6.941137989922419</v>
       </c>
       <c r="M10">
-        <v>15.43452970787552</v>
+        <v>14.95266026656531</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.97869026157171</v>
+        <v>14.42855973152854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.62225414212185</v>
+        <v>27.62952628297771</v>
       </c>
       <c r="C11">
-        <v>13.27541850395603</v>
+        <v>17.46082307530416</v>
       </c>
       <c r="D11">
-        <v>5.02448150294159</v>
+        <v>5.16465667963852</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.68631964724275</v>
+        <v>20.00606756727705</v>
       </c>
       <c r="G11">
-        <v>3.618453100739098</v>
+        <v>2.04910053060716</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>21.33024813405085</v>
+        <v>11.57108353910497</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.86529733978219</v>
+        <v>6.996330794653492</v>
       </c>
       <c r="M11">
-        <v>15.54140212865589</v>
+        <v>15.46406293171434</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>20.93514960349458</v>
+        <v>14.58993258790594</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.78143926230084</v>
+        <v>27.97675820206418</v>
       </c>
       <c r="C12">
-        <v>13.34552257189124</v>
+        <v>17.62406726723145</v>
       </c>
       <c r="D12">
-        <v>5.038191510363253</v>
+        <v>5.203308947544387</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.68951705984742</v>
+        <v>20.1723350216198</v>
       </c>
       <c r="G12">
-        <v>3.61793845088873</v>
+        <v>2.047564304348655</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>21.29543468225157</v>
+        <v>11.50983748242251</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.86193782017288</v>
+        <v>7.017899433556267</v>
       </c>
       <c r="M12">
-        <v>15.58192676141179</v>
+        <v>15.65387512330788</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>20.91963710395504</v>
+        <v>14.65464942413457</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.7472766128052</v>
+        <v>27.90230404072555</v>
       </c>
       <c r="C13">
-        <v>13.33046066298972</v>
+        <v>17.58902472434191</v>
       </c>
       <c r="D13">
-        <v>5.035243534212722</v>
+        <v>5.19500736587394</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.6887716460835</v>
+        <v>20.13641844730931</v>
       </c>
       <c r="G13">
-        <v>3.61804885125301</v>
+        <v>2.047894687355561</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>21.30289538002253</v>
+        <v>11.5228604793757</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.86264954115651</v>
+        <v>7.013224326588206</v>
       </c>
       <c r="M13">
-        <v>15.57319708515505</v>
+        <v>15.61316599511675</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>20.92293452480112</v>
+        <v>14.6405492317638</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.63540466198765</v>
+        <v>27.65824139494487</v>
       </c>
       <c r="C14">
-        <v>13.28120228063609</v>
+        <v>17.47430503796619</v>
       </c>
       <c r="D14">
-        <v>5.025611551044715</v>
+        <v>5.167846910667948</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.68655710823221</v>
+        <v>20.01969776560153</v>
       </c>
       <c r="G14">
-        <v>3.61841056243277</v>
+        <v>2.048973930749396</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>21.32736733891524</v>
+        <v>11.56596992524059</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.86501562724767</v>
+        <v>6.998091796617516</v>
       </c>
       <c r="M14">
-        <v>15.54473518564975</v>
+        <v>15.47975570934598</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>20.93385379906071</v>
+        <v>14.59518391922251</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.56652794809292</v>
+        <v>27.50778274145194</v>
       </c>
       <c r="C15">
-        <v>13.25092469909409</v>
+        <v>17.40369988593657</v>
       </c>
       <c r="D15">
-        <v>5.019697970714833</v>
+        <v>5.151143630419559</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.68536693439004</v>
+        <v>19.94852012847166</v>
       </c>
       <c r="G15">
-        <v>3.61863340634709</v>
+        <v>2.049636393949307</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>21.34246543950268</v>
+        <v>11.59285913307409</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.86649951230816</v>
+        <v>6.98891007720148</v>
       </c>
       <c r="M15">
-        <v>15.52730769783174</v>
+        <v>15.39753859115926</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>20.94066936866649</v>
+        <v>14.56786963285337</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.16650063277617</v>
+        <v>26.63073594652389</v>
       </c>
       <c r="C16">
-        <v>13.07583488900332</v>
+        <v>16.99397531832783</v>
       </c>
       <c r="D16">
-        <v>4.985604157382084</v>
+        <v>5.054413557409238</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.68109486118056</v>
+        <v>19.54554525165495</v>
       </c>
       <c r="G16">
-        <v>3.619930172711224</v>
+        <v>2.053454819588221</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>21.43064560538504</v>
+        <v>11.75406725416862</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.87553332745335</v>
+        <v>6.937623873310862</v>
       </c>
       <c r="M16">
-        <v>15.42755448077551</v>
+        <v>14.9186986016895</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>20.98167192035707</v>
+        <v>14.41851231109897</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.91642901262459</v>
+        <v>26.07939415638787</v>
       </c>
       <c r="C17">
-        <v>12.96705026470391</v>
+        <v>16.73810094484138</v>
       </c>
       <c r="D17">
-        <v>4.964510518283812</v>
+        <v>4.994185437704182</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.68074702228726</v>
+        <v>19.30278051786367</v>
       </c>
       <c r="G17">
-        <v>3.620743349451449</v>
+        <v>2.055817807218344</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>21.48622043912118</v>
+        <v>11.85900828976382</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.88154855696911</v>
+        <v>6.907338799896999</v>
       </c>
       <c r="M17">
-        <v>15.36648600201232</v>
+        <v>14.61805374574344</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.00855666993507</v>
+        <v>14.33318836351855</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.77091331969661</v>
+        <v>25.75736137722744</v>
       </c>
       <c r="C18">
-        <v>12.90399135736551</v>
+        <v>16.58928569886792</v>
       </c>
       <c r="D18">
-        <v>4.952314597074976</v>
+        <v>4.959223696517983</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.68138168456149</v>
+        <v>19.1648079837077</v>
       </c>
       <c r="G18">
-        <v>3.621217570375151</v>
+        <v>2.057184769601176</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>21.5187287204813</v>
+        <v>11.92147320260294</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.88518232077237</v>
+        <v>6.890348303650444</v>
       </c>
       <c r="M18">
-        <v>15.33141670414955</v>
+        <v>14.44258553354484</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.02465427356887</v>
+        <v>14.28638842617013</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.7213589108288</v>
+        <v>25.64747983405671</v>
       </c>
       <c r="C19">
-        <v>12.88255824979096</v>
+        <v>16.53861914579327</v>
       </c>
       <c r="D19">
-        <v>4.948174573399917</v>
+        <v>4.947331872018081</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.68173986566377</v>
+        <v>19.11838025581152</v>
       </c>
       <c r="G19">
-        <v>3.621379251869846</v>
+        <v>2.057648972701795</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>21.52982870122559</v>
+        <v>11.94297386473001</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.88644253174879</v>
+        <v>6.88466885237634</v>
       </c>
       <c r="M19">
-        <v>15.31955326341106</v>
+        <v>14.38273673916003</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.03021338471662</v>
+        <v>14.27092975363914</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.94322435721062</v>
+        <v>26.13859356998612</v>
       </c>
       <c r="C20">
-        <v>12.97868152823581</v>
+        <v>16.76550970904427</v>
       </c>
       <c r="D20">
-        <v>4.96676258258569</v>
+        <v>5.000630095776834</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.6806976432031</v>
+        <v>19.32845207624626</v>
       </c>
       <c r="G20">
-        <v>3.620656112704852</v>
+        <v>2.055565458916559</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>21.48024818310899</v>
+        <v>11.84761668422336</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.88089022169512</v>
+        <v>6.9105182398051</v>
       </c>
       <c r="M20">
-        <v>15.37298128764898</v>
+        <v>14.65032105582821</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.00562906025564</v>
+        <v>14.34203474417909</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.66833766906998</v>
+        <v>27.73012908958806</v>
       </c>
       <c r="C21">
-        <v>13.29569270755113</v>
+        <v>17.50807109910246</v>
       </c>
       <c r="D21">
-        <v>5.028443566845856</v>
+        <v>5.175838526810271</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.68717291538702</v>
+        <v>20.05391549200849</v>
       </c>
       <c r="G21">
-        <v>3.618304051307999</v>
+        <v>2.048656641762403</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>21.32015675487769</v>
+        <v>11.55320617246595</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.86431344238512</v>
+        <v>7.002518353746442</v>
       </c>
       <c r="M21">
-        <v>15.55309388349256</v>
+        <v>15.51904555530256</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>20.93062002512978</v>
+        <v>14.60840998438555</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.12657916237032</v>
+        <v>28.72710361770697</v>
       </c>
       <c r="C22">
-        <v>13.49820162608233</v>
+        <v>17.97838491246527</v>
       </c>
       <c r="D22">
-        <v>5.068147443337899</v>
+        <v>5.287376732991361</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.69884659270526</v>
+        <v>20.54230948726354</v>
       </c>
       <c r="G22">
-        <v>3.616824416175692</v>
+        <v>2.044204601132277</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>21.22037454732215</v>
+        <v>11.3821088733472</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.85502778748125</v>
+        <v>7.066546632024528</v>
       </c>
       <c r="M22">
-        <v>15.67111183261281</v>
+        <v>16.06441786055085</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>20.88728525054037</v>
+        <v>14.80358051179914</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.88347068216857</v>
+        <v>28.19892181661221</v>
       </c>
       <c r="C23">
-        <v>13.39056162474543</v>
+        <v>17.72875623436594</v>
       </c>
       <c r="D23">
-        <v>5.047014459546729</v>
+        <v>5.228123745135571</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.6919350906035</v>
+        <v>20.2803628511234</v>
       </c>
       <c r="G23">
-        <v>3.617608873601692</v>
+        <v>2.046575277723278</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>21.2731861727388</v>
+        <v>11.47134332784265</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.85984210785056</v>
+        <v>7.032012652992503</v>
       </c>
       <c r="M23">
-        <v>15.60810487390324</v>
+        <v>15.77537675788431</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>20.90989148456788</v>
+        <v>14.69744923354071</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.93111561284401</v>
+        <v>26.11184527927105</v>
       </c>
       <c r="C24">
-        <v>12.97342464124381</v>
+        <v>16.75312352757924</v>
       </c>
       <c r="D24">
-        <v>4.965744638450451</v>
+        <v>4.997717510373286</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.68071736775888</v>
+        <v>19.31684098715642</v>
       </c>
       <c r="G24">
-        <v>3.620695531517833</v>
+        <v>2.055679519196024</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>21.48294650333319</v>
+        <v>11.85276021286548</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.88118730831085</v>
+        <v>6.909079505277391</v>
       </c>
       <c r="M24">
-        <v>15.37004464293681</v>
+        <v>14.63574117942725</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.00695063571275</v>
+        <v>14.33802828434667</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.84014303224503</v>
+        <v>23.67235143258626</v>
       </c>
       <c r="C25">
-        <v>12.50500887156499</v>
+        <v>15.63828503413488</v>
       </c>
       <c r="D25">
-        <v>4.875684457958293</v>
+        <v>4.737048253142258</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.70051079681707</v>
+        <v>18.34129730738264</v>
       </c>
       <c r="G25">
-        <v>3.624273832581747</v>
+        <v>2.065802729118341</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>21.72996654075148</v>
+        <v>12.3435579234306</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.91086244154512</v>
+        <v>6.792807910485707</v>
       </c>
       <c r="M25">
-        <v>15.11550002629174</v>
+        <v>13.35451190903215</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.13586499829437</v>
+        <v>14.03672388237778</v>
       </c>
     </row>
   </sheetData>
